--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143537.4452747584</v>
+        <v>24764274.62162244</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143537.4452747584</v>
+        <v>24764274.62162244</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39254.7942777653</v>
+        <v>4934788.744959658</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39254.7942777653</v>
+        <v>4934788.744959658</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493851339.543983</v>
+        <v>54305586.65623439</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11155.25191568109</v>
+        <v>1102693.387977975</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22216.93402687783</v>
+        <v>2193152.236718161</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33294.33552585019</v>
+        <v>3292170.744130191</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44499.98376708235</v>
+        <v>4382016.095334664</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55480.93644538498</v>
+        <v>5489664.594623526</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66355.60732552898</v>
+        <v>6612761.004170328</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77249.05233150105</v>
+        <v>7748422.780728552</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88150.37202489373</v>
+        <v>8885651.620083479</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99467.76858720202</v>
+        <v>9982894.643402355</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110008.2383463306</v>
+        <v>11136795.74727947</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120390.8124444704</v>
+        <v>12313419.38296177</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130791.7845955443</v>
+        <v>13495206.91697532</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141193.3507766169</v>
+        <v>14677112.66295898</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152941.5786227715</v>
+        <v>15723374.71543475</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>166360.2466187534</v>
+        <v>16551017.19603338</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>10.00000000044423</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388.9999999997014</v>
@@ -27055,10 +27055,10 @@
         <v>26.00000000115358</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>344.9999999986132</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>26</v>
